--- a/data/georgia_census/samegrelo/chxorowyu/average_wages.xlsx
+++ b/data/georgia_census/samegrelo/chxorowyu/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{263CB874-4D9D-4680-A837-4BB1790988CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{494CD93F-E351-4BBA-9085-A23FC91AD29E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47268BFD-1F83-4BA0-BDCC-0F6BC3CEFD62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8BF5CC-CE23-41D6-8618-6428EBFBD27C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D93D421-128E-4BD2-8C37-823EFF2D9119}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60AA8348-6F17-4ACD-90B0-28AF76A71AC4}"/>
 </file>